--- a/experiment_sheet.xlsx
+++ b/experiment_sheet.xlsx
@@ -1,102 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23308"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FDA2A96-9AE0-4A2B-8DED-F01DD0FA9C6B}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    uma leitura e uma escrita - um cenário usando o Mongo e o Postgress</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>id_experimento</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>hora</t>
-  </si>
-  <si>
-    <t>I_O</t>
-  </si>
-  <si>
-    <t>cenario</t>
-  </si>
-  <si>
-    <t>configuracao_hard</t>
-  </si>
-  <si>
-    <t>configuracao_soft</t>
-  </si>
-  <si>
-    <t>funcao_api</t>
-  </si>
-  <si>
-    <t>qt_bytes</t>
-  </si>
-  <si>
-    <t>time_stamp_init</t>
-  </si>
-  <si>
-    <t>time_stamp_fin</t>
-  </si>
-  <si>
-    <t>latencia ( J - I )</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,29 +50,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Daniel Barr" id="{B8520799-3FD3-4124-8E36-A4753AC35D61}" userId="4ef6878df07d3e2e" providerId="Windows Live"/>
-</personList>
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    uma leitura e uma escrita - um cenário usando o Mongo e o Postgress</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,73 +445,1096 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2020-09-11T01:27:55.40" personId="{B8520799-3FD3-4124-8E36-A4753AC35D61}" id="{E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}">
-    <text>uma leitura e uma escrita - um cenário usando o Mongo e o Postgress</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col width="15.7109375" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="18.5703125" customWidth="1" min="10" max="10"/>
+    <col width="18.140625" customWidth="1" min="11" max="11"/>
+    <col width="22.140625" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id_experimento</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>hora</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>I_O</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>cenario</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>configuracao_hard</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>configuracao_soft</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>funcao_api</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>qt_bytes</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>time_stamp_init</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>time_stamp_fin</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>latencia ( J - I )</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020-10-16 065636717839</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06:57:26.455604</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>44120.28931386388</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>44120.28988949208</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0:00:49.734278</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020-10-16 065727579400</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>06:59:07.646497</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>44120.28990253935</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>44120.29106072163</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0:01:40.066949</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-10-16 065909684945</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>06:59:59.411619</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>44120.29108431648</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>44120.29165985616</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0:00:49.726627</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-10-16 070000433117</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:05:01.676827</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>44120.29167167961</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>44120.29515829599</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0:05:01.243657</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-10-16 070503711742</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07:05:53.443898</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>44120.29518184888</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>44120.29575745192</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0:00:49.732104</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-10-16 070554463063</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:15:57.397714</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>44120.29576924841</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>44120.30274765817</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0:10:02.934603</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-10-16 071559433566</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07:16:49.155790</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>44120.30277122183</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>44120.30334670994</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0:00:49.722173</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-10-16 071650174954</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07:33:36.389735</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>44120.30335850641</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>44120.31500450955</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0:16:46.214671</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-10-16 073338423446</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07:34:28.149194</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>44120.31502804915</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>44120.31560357677</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0:00:49.725587</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-10-16 073429168770</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07:59:40.002030</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>44120.31561537928</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>44120.33310187484</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0:25:10.833216</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-10-16 075942036966</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08:00:31.764587</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>44120.33312542785</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>44120.33370097838</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0:00:49.727566</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-10-16 080032786314</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08:35:50.028959</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>44120.33371280456</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>44120.35821792722</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0:35:17.242598</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-10-16 083552067827</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08:36:41.800701</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>44120.35824152578</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>44120.35881713605</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0:00:49.732728</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-10-16 083642822075</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>09:24:04.031096</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>44120.3588289592</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>44120.39171332235</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0:47:21.208976</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-10-16 092406068894</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09:24:55.791950</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>44120.39173690851</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>44120.39231240623</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0:00:49.723005</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-10-16 092456814319</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10:29:22.157379</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <v>44120.3923242398</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>44120.43706200597</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1:04:25.342997</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-10-16 102924195514</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10:30:13.921525</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <v>44120.43708559623</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>44120.43766112707</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0:00:49.725865</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/experiment_sheet.xlsx
+++ b/experiment_sheet.xlsx
@@ -1,22 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\api_test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F43C043-D726-489B-996D-902A849CE804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23413"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70E6077-7A9F-4728-AB88-0748D74966AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    uma leitura e uma escrita - um cenário usando o Mongo e o Postgress</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,6 +73,9 @@
     <t>qt_bytes</t>
   </si>
   <si>
+    <t>qt_requisicoes</t>
+  </si>
+  <si>
     <t>time_stamp_init</t>
   </si>
   <si>
@@ -56,21 +83,22 @@
   </si>
   <si>
     <t>latencia ( J - I )</t>
-  </si>
-  <si>
-    <t>qt_requisicoes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,11 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,6 +144,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Daniel Barr" id="{B8520799-3FD3-4124-8E36-A4753AC35D61}" userId="4ef6878df07d3e2e" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,27 +447,35 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2020-09-11T01:27:55.40" personId="{B8520799-3FD3-4124-8E36-A4753AC35D61}" id="{E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}">
+    <text>uma leitura e uma escrita - um cenário usando o Mongo e o Postgress</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="A2:M18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
     <col min="13" max="13" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,275 +504,23 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+    <row r="10" spans="1:13">
       <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiment_sheet.xlsx
+++ b/experiment_sheet.xlsx
@@ -1,114 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23413"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70E6077-7A9F-4728-AB88-0748D74966AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    uma leitura e uma escrita - um cenário usando o Mongo e o Postgress</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>id_experimento</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>hora</t>
-  </si>
-  <si>
-    <t>I_O</t>
-  </si>
-  <si>
-    <t>cenario</t>
-  </si>
-  <si>
-    <t>configuracao_hard</t>
-  </si>
-  <si>
-    <t>configuracao_soft</t>
-  </si>
-  <si>
-    <t>funcao_api</t>
-  </si>
-  <si>
-    <t>qt_bytes</t>
-  </si>
-  <si>
-    <t>qt_requisicoes</t>
-  </si>
-  <si>
-    <t>time_stamp_init</t>
-  </si>
-  <si>
-    <t>time_stamp_fin</t>
-  </si>
-  <si>
-    <t>latencia ( J - I )</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,30 +58,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Daniel Barr" id="{B8520799-3FD3-4124-8E36-A4753AC35D61}" userId="4ef6878df07d3e2e" providerId="Windows Live"/>
-</personList>
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    uma leitura e uma escrita - um cenário usando o Mongo e o Postgress</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,80 +454,1342 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2020-09-11T01:27:55.40" personId="{B8520799-3FD3-4124-8E36-A4753AC35D61}" id="{E4FA4EE9-A46B-4360-8EDD-FD9C8258D751}">
-    <text>uma leitura e uma escrita - um cenário usando o Mongo e o Postgress</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col width="15.7109375" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="8"/>
+    <col width="8.85546875" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="18.5703125" customWidth="1" min="11" max="11"/>
+    <col width="18.140625" customWidth="1" min="12" max="12"/>
+    <col width="22.140625" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="J10" s="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id_experimento</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>hora</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>I_O</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>cenario</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>configuracao_hard</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>configuracao_soft</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>funcao_api</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>qt_bytes</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>qt_requisicoes</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>time_stamp_init</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>time_stamp_fin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>latencia ( J - I )</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="J10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-10-16 130437955303</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13:05:27.696769</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>44120.54488374193</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>44120.54545939183</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0:00:49.736151</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-10-16 130528819404</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>13:06:18.556561</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>23200</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>44120.54547244681</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>44120.5460481065</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0:00:49.736998</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-10-16 130620589754</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>13:08:00.541060</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>46400</v>
+      </c>
+      <c r="J13" t="n">
+        <v>200</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>44120.54607164067</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>44120.54722848204</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0:01:39.951094</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-10-16 130801560094</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13:10:31.726871</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>46400</v>
+      </c>
+      <c r="J14" t="n">
+        <v>200</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>44120.54724027888</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>44120.54897831966</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0:02:30.166725</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-10-16 131033760136</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13:13:03.902879</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>69600</v>
+      </c>
+      <c r="J15" t="n">
+        <v>300</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>44120.54900185344</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>44120.55073961507</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0:02:30.142606</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-10-16 131304923680</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>13:18:05.717378</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>69600</v>
+      </c>
+      <c r="J16" t="n">
+        <v>300</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>44120.55075143148</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>44120.55423283943</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0:05:00.793647</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-10-16 131807752255</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>13:21:28.120748</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>92800</v>
+      </c>
+      <c r="J17" t="n">
+        <v>400</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>44120.55425639184</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>44120.55657547106</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0:03:20.368445</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-10-16 132129148171</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13:29:50.812116</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>92800</v>
+      </c>
+      <c r="J18" t="n">
+        <v>400</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>44120.55658736309</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>44120.56239365718</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0:08:21.663809</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-10-16 132952846661</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>13:34:03.414646</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>116000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>500</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>44120.56241720673</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>44120.56531729844</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0:04:10.567924</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-10-16 133404438253</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13:46:37.125534</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>116000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>500</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>44120.56532914645</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>44120.57404080391</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0:12:32.687205</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-10-16 134639163178</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13:51:39.950945</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>139200</v>
+      </c>
+      <c r="J21" t="n">
+        <v>600</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>44120.57406438863</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>44120.57754572682</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0:05:00.787619</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-10-16 135140976006</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:09:14.955061</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>139200</v>
+      </c>
+      <c r="J22" t="n">
+        <v>600</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>44120.57755759266</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>44120.58975642192</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0:17:33.978848</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-10-16 140916992092</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:15:07.979805</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>162400</v>
+      </c>
+      <c r="J23" t="n">
+        <v>700</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>44120.58978000105</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>44120.59384235828</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0:05:50.987663</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-10-16 141509007209</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:38:34.443144</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>162400</v>
+      </c>
+      <c r="J24" t="n">
+        <v>700</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>44120.5938542501</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>44120.61012086915</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0:23:25.435885</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-10-16 143836481271</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:45:17.690727</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>185600</v>
+      </c>
+      <c r="J25" t="n">
+        <v>800</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>44120.61014445914</v>
+      </c>
+      <c r="L25" s="5" t="n">
+        <v>44120.61478808655</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0:06:41.209407</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-10-16 144518717714</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>15:15:25.750945</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>185600</v>
+      </c>
+      <c r="J26" t="n">
+        <v>800</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>44120.61479997354</v>
+      </c>
+      <c r="L26" s="5" t="n">
+        <v>44120.63571470937</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0:30:07.033176</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-10-16 151527787817</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>15:22:59.203181</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>208800</v>
+      </c>
+      <c r="J27" t="n">
+        <v>900</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>44120.63573828492</v>
+      </c>
+      <c r="L27" s="5" t="n">
+        <v>44120.64096299921</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0:07:31.415315</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-10-16 152300228405</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:00:39.423049</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>208800</v>
+      </c>
+      <c r="J28" t="n">
+        <v>900</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>44120.6409748658</v>
+      </c>
+      <c r="L28" s="5" t="n">
+        <v>44120.66712295148</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0:37:39.194603</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-10-16 160041464718</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:09:03.141312</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>232000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>44120.66714658238</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <v>44120.67295302384</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0:08:21.676542</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-10-16 160904169865</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>44120</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:55:05.936101</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    uname_result(system='Linux', node='client', release='5.4.0-51-generic', version='#56-Ubuntu SMP Mon Oct 5 14:28:49 UTC 2020', machine='x86_64', processor='x86_64')
+    </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+    total_disco: 30gb,
+    ram: 2gb
+    </t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>/sample</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>232000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>44120.67296492899</v>
+      </c>
+      <c r="L30" s="5" t="n">
+        <v>44120.70492981528</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0:46:01.766175</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>